--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/10/seed5/result_data_KNN.xlsx
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.438</v>
+        <v>6.112</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
